--- a/data/trans_dic/P25C$otraforma_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otraforma_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +597,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,79; 25,76</t>
+          <t>11,04; 26,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 11,43</t>
+          <t>1,2; 10,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 18,2</t>
+          <t>7,7; 17,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 12,66</t>
+          <t>0,0; 11,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,31</t>
+          <t>0,0; 7,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 7,5</t>
+          <t>1,01; 7,38</t>
         </is>
       </c>
     </row>
@@ -734,12 +735,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,02</t>
+          <t>0,0; 6,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
     </row>
@@ -796,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -846,7 +847,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 8,77</t>
+          <t>2,01; 8,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,52</t>
+          <t>1,18; 4,71</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,66</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,62</t>
+          <t>0,0; 9,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,7</t>
+          <t>1,0; 4,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,47</t>
+          <t>1,57; 4,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,16</t>
+          <t>1,42; 4,05</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo método para dejar de fumar fue otro</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1422</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 885</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1284</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18949</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2917</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21867</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12197; 28927</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>785; 7010</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13554; 31427</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2868</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8146</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3661</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1193; 8728</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1575</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3628</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4143</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1045</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 753</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 941</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1100</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 997</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1092</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5173</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3345</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1907; 8519</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2552; 10214</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1761</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2458</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 9147</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3552</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 9206</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>24296</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>9467</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>33763</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>8461; 39834</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>5309; 15816</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>16853; 48026</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>